--- a/src/assets/ExcelSample/CSSXCN.xlsx
+++ b/src/assets/ExcelSample/CSSXCN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoa Nguyen\Desktop\MILBP\industrial-and-commercial-facilities\src\assets\ExcelSample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoa Nguyen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Một số sản phẩm công nghiệp chủ yếu</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Đá xây dựng khác</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Triệu KWh</t>
+  </si>
+  <si>
+    <t>Các hợp chất từ cao su tổng hợp và cao su tự nhiên và các loại nhựa tự nhiên tương tự, ở dạng nguyên sinh hoặc tấm lỏ hoặc dải</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,15 +192,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,16 +244,17 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -552,19 +548,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="9" width="18.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -586,396 +582,411 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>141</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>165</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>142</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>166</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>143</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>167</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>144</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>168</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>145</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>169</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>146</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>170</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>171</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>147</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>172</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>148</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>173</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>149</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>174</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>150</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>175</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>151</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>176</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>152</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>177</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>153</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>178</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>154</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>179</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>155</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>180</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>156</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>181</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>182</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>157</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>183</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>159</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>184</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>160</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>185</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>161</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>186</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>162</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>187</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>163</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>188</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>164</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/ExcelSample/CSSXCN.xlsx
+++ b/src/assets/ExcelSample/CSSXCN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoa Nguyen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoa Nguyen\Desktop\MILBP\industrial-and-commercial-facilities\src\assets\ExcelSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Các hợp chất từ cao su tổng hợp và cao su tự nhiên và các loại nhựa tự nhiên tương tự, ở dạng nguyên sinh hoặc tấm lỏ hoặc dải</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -165,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +201,21 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -235,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -539,454 +570,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="18.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>166</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>167</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>168</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>169</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>170</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>171</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>172</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>173</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>174</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>175</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>176</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>177</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>178</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="8">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>179</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="8">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>180</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="8">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>181</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="8">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>182</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>183</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="8">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>184</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="8">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>185</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="8">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>186</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="8">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>187</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="8">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>188</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="8">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
